--- a/pred_ohlcv/54/2019-11-13 WOM ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-13 WOM ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H270"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F2" t="n">
-        <v>2443.411</v>
+        <v>6644.005</v>
       </c>
       <c r="G2" t="n">
-        <v>225.1833333333333</v>
+        <v>225.3</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E3" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" t="n">
-        <v>6425.0713</v>
+        <v>2443.411</v>
       </c>
       <c r="G3" t="n">
-        <v>225.05</v>
+        <v>225.1833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -463,21 +474,24 @@
         <v>221</v>
       </c>
       <c r="C4" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D4" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E4" t="n">
         <v>221</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>6425.0713</v>
       </c>
       <c r="G4" t="n">
-        <v>224.9333333333333</v>
+        <v>225.05</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C5" t="n">
         <v>222</v>
@@ -498,12 +512,15 @@
         <v>221</v>
       </c>
       <c r="F5" t="n">
-        <v>17.1308045045045</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>224.8666666666667</v>
+        <v>224.9333333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -515,21 +532,24 @@
         <v>222</v>
       </c>
       <c r="C6" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D6" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E6" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F6" t="n">
-        <v>492.7503954954955</v>
+        <v>17.1308045045045</v>
       </c>
       <c r="G6" t="n">
-        <v>224.8333333333333</v>
+        <v>224.8666666666667</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -541,21 +561,24 @@
         <v>222</v>
       </c>
       <c r="C7" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D7" t="n">
+        <v>224</v>
+      </c>
+      <c r="E7" t="n">
         <v>222</v>
       </c>
-      <c r="E7" t="n">
-        <v>221</v>
-      </c>
       <c r="F7" t="n">
-        <v>4747.9627</v>
+        <v>492.7503954954955</v>
       </c>
       <c r="G7" t="n">
-        <v>224.75</v>
+        <v>224.8333333333333</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C8" t="n">
+        <v>221</v>
+      </c>
+      <c r="D8" t="n">
         <v>222</v>
       </c>
-      <c r="D8" t="n">
-        <v>223</v>
-      </c>
       <c r="E8" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F8" t="n">
-        <v>6.2</v>
+        <v>4747.9627</v>
       </c>
       <c r="G8" t="n">
-        <v>224.6333333333333</v>
+        <v>224.75</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>223</v>
+      </c>
+      <c r="C9" t="n">
         <v>222</v>
       </c>
-      <c r="C9" t="n">
-        <v>220</v>
-      </c>
       <c r="D9" t="n">
+        <v>223</v>
+      </c>
+      <c r="E9" t="n">
         <v>222</v>
       </c>
-      <c r="E9" t="n">
-        <v>220</v>
-      </c>
       <c r="F9" t="n">
-        <v>5300.5304</v>
+        <v>6.2</v>
       </c>
       <c r="G9" t="n">
-        <v>224.4833333333333</v>
+        <v>224.6333333333333</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C10" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D10" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E10" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" t="n">
-        <v>1452.5</v>
+        <v>5300.5304</v>
       </c>
       <c r="G10" t="n">
-        <v>224.4333333333333</v>
+        <v>224.4833333333333</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C11" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D11" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E11" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>1452.5</v>
       </c>
       <c r="G11" t="n">
         <v>224.4333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C12" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D12" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E12" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F12" t="n">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>224.3666666666667</v>
+        <v>224.4333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C13" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D13" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E13" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F13" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G13" t="n">
-        <v>224.2166666666667</v>
+        <v>224.3666666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C14" t="n">
         <v>220</v>
       </c>
       <c r="D14" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E14" t="n">
         <v>220</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>224.0666666666667</v>
+        <v>224.2166666666667</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F15" t="n">
         <v>5</v>
       </c>
       <c r="G15" t="n">
-        <v>223.9666666666667</v>
+        <v>224.0666666666667</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>221</v>
       </c>
       <c r="C16" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D16" t="n">
         <v>221</v>
       </c>
       <c r="E16" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F16" t="n">
-        <v>1134.1296</v>
+        <v>5</v>
       </c>
       <c r="G16" t="n">
-        <v>223.8166666666667</v>
+        <v>223.9666666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>221</v>
+      </c>
+      <c r="C17" t="n">
         <v>220</v>
       </c>
-      <c r="C17" t="n">
-        <v>222</v>
-      </c>
       <c r="D17" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E17" t="n">
         <v>220</v>
       </c>
       <c r="F17" t="n">
-        <v>10.8947</v>
+        <v>1134.1296</v>
       </c>
       <c r="G17" t="n">
-        <v>223.7333333333333</v>
+        <v>223.8166666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D18" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E18" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F18" t="n">
-        <v>4.4753</v>
+        <v>10.8947</v>
       </c>
       <c r="G18" t="n">
-        <v>223.6</v>
+        <v>223.7333333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>221</v>
       </c>
       <c r="C19" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D19" t="n">
         <v>221</v>
       </c>
       <c r="E19" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F19" t="n">
-        <v>1495.5247</v>
+        <v>4.4753</v>
       </c>
       <c r="G19" t="n">
-        <v>223.5</v>
+        <v>223.6</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -888,12 +947,15 @@
         <v>220</v>
       </c>
       <c r="F20" t="n">
-        <v>1250</v>
+        <v>1495.5247</v>
       </c>
       <c r="G20" t="n">
-        <v>223.4</v>
+        <v>223.5</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,24 +964,27 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C21" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D21" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E21" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>1250</v>
       </c>
       <c r="G21" t="n">
-        <v>223.4333333333333</v>
+        <v>223.4</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C22" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D22" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E22" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F22" t="n">
-        <v>774.931</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>223.3333333333333</v>
+        <v>223.4333333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C23" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D23" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E23" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F23" t="n">
-        <v>3.0533</v>
+        <v>774.931</v>
       </c>
       <c r="G23" t="n">
-        <v>223.3666666666667</v>
+        <v>223.3333333333333</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C24" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D24" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E24" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F24" t="n">
-        <v>3400</v>
+        <v>3.0533</v>
       </c>
       <c r="G24" t="n">
-        <v>223.35</v>
+        <v>223.3666666666667</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>222</v>
+      </c>
+      <c r="C25" t="n">
         <v>221</v>
       </c>
-      <c r="C25" t="n">
-        <v>220</v>
-      </c>
       <c r="D25" t="n">
+        <v>222</v>
+      </c>
+      <c r="E25" t="n">
         <v>221</v>
       </c>
-      <c r="E25" t="n">
-        <v>220</v>
-      </c>
       <c r="F25" t="n">
-        <v>8016.9607</v>
+        <v>3400</v>
       </c>
       <c r="G25" t="n">
-        <v>223.2833333333333</v>
+        <v>223.35</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1035,21 +1112,24 @@
         <v>221</v>
       </c>
       <c r="C26" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" t="n">
         <v>221</v>
       </c>
       <c r="E26" t="n">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F26" t="n">
-        <v>66.46680000000001</v>
+        <v>8016.9607</v>
       </c>
       <c r="G26" t="n">
-        <v>223.1833333333333</v>
+        <v>223.2833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C27" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F27" t="n">
-        <v>341.856</v>
+        <v>66.46680000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>223.15</v>
+        <v>223.1833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C28" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D28" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E28" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F28" t="n">
-        <v>6.9692</v>
+        <v>341.856</v>
       </c>
       <c r="G28" t="n">
-        <v>223.1333333333333</v>
+        <v>223.15</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>224</v>
       </c>
       <c r="C29" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D29" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E29" t="n">
         <v>224</v>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>6.9692</v>
       </c>
       <c r="G29" t="n">
-        <v>223.15</v>
+        <v>223.1333333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>224</v>
       </c>
       <c r="C30" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D30" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E30" t="n">
         <v>224</v>
       </c>
       <c r="F30" t="n">
-        <v>140.4821</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="n">
         <v>223.15</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>140.4821</v>
       </c>
       <c r="G31" t="n">
-        <v>223.1666666666667</v>
+        <v>223.15</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D32" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E32" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F32" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="G32" t="n">
-        <v>223.1166666666667</v>
+        <v>223.1666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C33" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D33" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E33" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G33" t="n">
-        <v>223.1666666666667</v>
+        <v>223.1166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C34" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D34" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E34" t="n">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F34" t="n">
-        <v>4000</v>
+        <v>50</v>
       </c>
       <c r="G34" t="n">
-        <v>223.15</v>
+        <v>223.1666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C35" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E35" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="G35" t="n">
-        <v>223.1666666666667</v>
+        <v>223.15</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C36" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D36" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E36" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F36" t="n">
-        <v>2.5</v>
+        <v>250</v>
       </c>
       <c r="G36" t="n">
-        <v>223.2</v>
+        <v>223.1666666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C37" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D37" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E37" t="n">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F37" t="n">
-        <v>1812.7205</v>
+        <v>2.5</v>
       </c>
       <c r="G37" t="n">
         <v>223.2</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C38" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D38" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E38" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F38" t="n">
-        <v>3.1854</v>
+        <v>1812.7205</v>
       </c>
       <c r="G38" t="n">
-        <v>223.2333333333333</v>
+        <v>223.2</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>224</v>
       </c>
       <c r="F39" t="n">
-        <v>23.1872</v>
+        <v>3.1854</v>
       </c>
       <c r="G39" t="n">
-        <v>223.1833333333333</v>
+        <v>223.2333333333333</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C40" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D40" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E40" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F40" t="n">
-        <v>99.3511</v>
+        <v>23.1872</v>
       </c>
       <c r="G40" t="n">
         <v>223.1833333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>222</v>
       </c>
       <c r="F41" t="n">
-        <v>3208.6292</v>
+        <v>99.3511</v>
       </c>
       <c r="G41" t="n">
-        <v>223.1</v>
+        <v>223.1833333333333</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D42" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E42" t="n">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F42" t="n">
-        <v>461.0449</v>
+        <v>3208.6292</v>
       </c>
       <c r="G42" t="n">
-        <v>223.0666666666667</v>
+        <v>223.1</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C43" t="n">
         <v>225</v>
@@ -1483,15 +1611,18 @@
         <v>225</v>
       </c>
       <c r="E43" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F43" t="n">
-        <v>99.116</v>
+        <v>461.0449</v>
       </c>
       <c r="G43" t="n">
-        <v>223.0166666666667</v>
+        <v>223.0666666666667</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1512,12 +1643,15 @@
         <v>225</v>
       </c>
       <c r="F44" t="n">
-        <v>297.3613</v>
+        <v>99.116</v>
       </c>
       <c r="G44" t="n">
-        <v>223.0333333333333</v>
+        <v>223.0166666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C45" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D45" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E45" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F45" t="n">
-        <v>23.9228</v>
+        <v>297.3613</v>
       </c>
       <c r="G45" t="n">
-        <v>223.05</v>
+        <v>223.0333333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D46" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E46" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F46" t="n">
-        <v>139.2328</v>
+        <v>23.9228</v>
       </c>
       <c r="G46" t="n">
-        <v>223</v>
+        <v>223.05</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,7 +1718,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C47" t="n">
         <v>225</v>
@@ -1587,15 +1727,18 @@
         <v>225</v>
       </c>
       <c r="E47" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F47" t="n">
-        <v>192.9907</v>
+        <v>139.2328</v>
       </c>
       <c r="G47" t="n">
-        <v>223.0833333333333</v>
+        <v>223</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1607,21 +1750,24 @@
         <v>225</v>
       </c>
       <c r="C48" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D48" t="n">
         <v>225</v>
       </c>
       <c r="E48" t="n">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F48" t="n">
-        <v>8914.934999999999</v>
+        <v>192.9907</v>
       </c>
       <c r="G48" t="n">
-        <v>223.0166666666667</v>
+        <v>223.0833333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1633,21 +1779,24 @@
         <v>225</v>
       </c>
       <c r="C49" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D49" t="n">
         <v>225</v>
       </c>
       <c r="E49" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>8914.934999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>223.0833333333333</v>
+        <v>223.0166666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1671,9 +1820,12 @@
         <v>2</v>
       </c>
       <c r="G50" t="n">
-        <v>223.0666666666667</v>
+        <v>223.0833333333333</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C51" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D51" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E51" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F51" t="n">
-        <v>4006.4574</v>
+        <v>2</v>
       </c>
       <c r="G51" t="n">
-        <v>223.0833333333333</v>
+        <v>223.0666666666667</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>224</v>
+      </c>
+      <c r="C52" t="n">
         <v>223</v>
       </c>
-      <c r="C52" t="n">
-        <v>225</v>
-      </c>
       <c r="D52" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E52" t="n">
         <v>223</v>
       </c>
       <c r="F52" t="n">
-        <v>1451.0991</v>
+        <v>4006.4574</v>
       </c>
       <c r="G52" t="n">
-        <v>223.0666666666667</v>
+        <v>223.0833333333333</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1892,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C53" t="n">
         <v>225</v>
@@ -1743,15 +1901,18 @@
         <v>225</v>
       </c>
       <c r="E53" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>1451.0991</v>
       </c>
       <c r="G53" t="n">
-        <v>223.05</v>
+        <v>223.0666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,7 +1921,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C54" t="n">
         <v>225</v>
@@ -1769,15 +1930,18 @@
         <v>225</v>
       </c>
       <c r="E54" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F54" t="n">
-        <v>431.3922</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>223.0333333333333</v>
+        <v>223.05</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,7 +1950,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C55" t="n">
         <v>225</v>
@@ -1795,15 +1959,18 @@
         <v>225</v>
       </c>
       <c r="E55" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F55" t="n">
-        <v>4709.9173</v>
+        <v>431.3922</v>
       </c>
       <c r="G55" t="n">
-        <v>223.0833333333333</v>
+        <v>223.0333333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C56" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D56" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E56" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F56" t="n">
-        <v>2059.688</v>
+        <v>4709.9173</v>
       </c>
       <c r="G56" t="n">
-        <v>223.1</v>
+        <v>223.0833333333333</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>226</v>
       </c>
       <c r="F57" t="n">
-        <v>1440.4409</v>
+        <v>2059.688</v>
       </c>
       <c r="G57" t="n">
-        <v>223.05</v>
+        <v>223.1</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C58" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D58" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E58" t="n">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>1440.4409</v>
       </c>
       <c r="G58" t="n">
-        <v>223.1166666666667</v>
+        <v>223.05</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1893,21 +2069,24 @@
         <v>227</v>
       </c>
       <c r="C59" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D59" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E59" t="n">
         <v>227</v>
       </c>
       <c r="F59" t="n">
-        <v>943.0559</v>
+        <v>3</v>
       </c>
       <c r="G59" t="n">
-        <v>223.1666666666667</v>
+        <v>223.1166666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>227</v>
+      </c>
+      <c r="C60" t="n">
         <v>228</v>
       </c>
-      <c r="C60" t="n">
-        <v>229</v>
-      </c>
       <c r="D60" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E60" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F60" t="n">
-        <v>7635.9996</v>
+        <v>943.0559</v>
       </c>
       <c r="G60" t="n">
-        <v>223.2333333333333</v>
+        <v>223.1666666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>228</v>
       </c>
       <c r="C61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D61" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E61" t="n">
         <v>228</v>
       </c>
       <c r="F61" t="n">
-        <v>3490.2612</v>
+        <v>7635.9996</v>
       </c>
       <c r="G61" t="n">
-        <v>223.3166666666667</v>
+        <v>223.2333333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>228</v>
       </c>
       <c r="F62" t="n">
-        <v>1.5</v>
+        <v>3490.2612</v>
       </c>
       <c r="G62" t="n">
-        <v>223.4166666666667</v>
+        <v>223.3166666666667</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C63" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D63" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E63" t="n">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F63" t="n">
-        <v>10040.8177</v>
+        <v>1.5</v>
       </c>
       <c r="G63" t="n">
-        <v>223.4833333333333</v>
+        <v>223.4166666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>225</v>
       </c>
       <c r="F64" t="n">
-        <v>2157.7142</v>
+        <v>10040.8177</v>
       </c>
       <c r="G64" t="n">
-        <v>223.5333333333333</v>
+        <v>223.4833333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2046,24 +2240,27 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C65" t="n">
         <v>225</v>
       </c>
       <c r="D65" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E65" t="n">
         <v>225</v>
       </c>
       <c r="F65" t="n">
-        <v>5.3815</v>
+        <v>2157.7142</v>
       </c>
       <c r="G65" t="n">
-        <v>223.5833333333333</v>
+        <v>223.5333333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>225</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>5.3815</v>
       </c>
       <c r="G66" t="n">
-        <v>223.6</v>
+        <v>223.5833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C67" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D67" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E67" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F67" t="n">
-        <v>1.2</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>223.7</v>
+        <v>223.6</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2127,21 +2330,24 @@
         <v>227</v>
       </c>
       <c r="C68" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E68" t="n">
         <v>227</v>
       </c>
       <c r="F68" t="n">
-        <v>100</v>
+        <v>1.2</v>
       </c>
       <c r="G68" t="n">
-        <v>223.8</v>
+        <v>223.7</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>227</v>
       </c>
       <c r="C69" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D69" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E69" t="n">
         <v>227</v>
       </c>
       <c r="F69" t="n">
-        <v>975.5098</v>
+        <v>100</v>
       </c>
       <c r="G69" t="n">
-        <v>223.9166666666667</v>
+        <v>223.8</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>227</v>
       </c>
       <c r="F70" t="n">
-        <v>2.5</v>
+        <v>975.5098</v>
       </c>
       <c r="G70" t="n">
-        <v>223.9833333333333</v>
+        <v>223.9166666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C71" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D71" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E71" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F71" t="n">
-        <v>68.5</v>
+        <v>2.5</v>
       </c>
       <c r="G71" t="n">
         <v>223.9833333333333</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C72" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D72" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E72" t="n">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F72" t="n">
-        <v>4847.0693</v>
+        <v>68.5</v>
       </c>
       <c r="G72" t="n">
-        <v>224.0166666666667</v>
+        <v>223.9833333333333</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,21 +2475,24 @@
         <v>225</v>
       </c>
       <c r="C73" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" t="n">
         <v>225</v>
       </c>
       <c r="E73" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F73" t="n">
-        <v>8.0862</v>
+        <v>4847.0693</v>
       </c>
       <c r="G73" t="n">
-        <v>224.1</v>
+        <v>224.0166666666667</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C74" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D74" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E74" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F74" t="n">
-        <v>92.58410000000001</v>
+        <v>8.0862</v>
       </c>
       <c r="G74" t="n">
-        <v>224.2333333333333</v>
+        <v>224.1</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,7 +2530,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C75" t="n">
         <v>228</v>
@@ -2315,15 +2539,18 @@
         <v>228</v>
       </c>
       <c r="E75" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F75" t="n">
-        <v>12.9017</v>
+        <v>92.58410000000001</v>
       </c>
       <c r="G75" t="n">
-        <v>224.35</v>
+        <v>224.2333333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C76" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E76" t="n">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F76" t="n">
-        <v>2528.3928</v>
+        <v>12.9017</v>
       </c>
       <c r="G76" t="n">
-        <v>224.4666666666667</v>
+        <v>224.35</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C77" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D77" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E77" t="n">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F77" t="n">
-        <v>12.9017</v>
+        <v>2528.3928</v>
       </c>
       <c r="G77" t="n">
-        <v>224.5166666666667</v>
+        <v>224.4666666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>225</v>
       </c>
       <c r="C78" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D78" t="n">
         <v>225</v>
       </c>
       <c r="E78" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F78" t="n">
-        <v>5531.6499</v>
+        <v>12.9017</v>
       </c>
       <c r="G78" t="n">
-        <v>224.5666666666667</v>
+        <v>224.5166666666667</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2422,12 +2658,15 @@
         <v>224</v>
       </c>
       <c r="F79" t="n">
-        <v>5929.8077</v>
+        <v>5531.6499</v>
       </c>
       <c r="G79" t="n">
-        <v>224.6333333333333</v>
+        <v>224.5666666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>224</v>
       </c>
       <c r="F80" t="n">
-        <v>31061.6478</v>
+        <v>5929.8077</v>
       </c>
       <c r="G80" t="n">
-        <v>224.7</v>
+        <v>224.6333333333333</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C81" t="n">
         <v>224</v>
       </c>
       <c r="D81" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E81" t="n">
         <v>224</v>
       </c>
       <c r="F81" t="n">
-        <v>1629.5532</v>
+        <v>31061.6478</v>
       </c>
       <c r="G81" t="n">
         <v>224.7</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C82" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E82" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F82" t="n">
-        <v>346.9816</v>
+        <v>1629.5532</v>
       </c>
       <c r="G82" t="n">
-        <v>224.75</v>
+        <v>224.7</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C83" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D83" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E83" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F83" t="n">
-        <v>6445.0648</v>
+        <v>346.9816</v>
       </c>
       <c r="G83" t="n">
-        <v>224.6833333333333</v>
+        <v>224.75</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C84" t="n">
         <v>220</v>
       </c>
       <c r="D84" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E84" t="n">
         <v>220</v>
       </c>
       <c r="F84" t="n">
-        <v>1644.896</v>
+        <v>6445.0648</v>
       </c>
       <c r="G84" t="n">
-        <v>224.6666666666667</v>
+        <v>224.6833333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C85" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D85" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E85" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F85" t="n">
-        <v>100</v>
+        <v>1644.896</v>
       </c>
       <c r="G85" t="n">
-        <v>224.7166666666667</v>
+        <v>224.6666666666667</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>223</v>
       </c>
       <c r="F86" t="n">
-        <v>997.1088999999999</v>
+        <v>100</v>
       </c>
       <c r="G86" t="n">
-        <v>224.75</v>
+        <v>224.7166666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2621,21 +2881,24 @@
         <v>223</v>
       </c>
       <c r="C87" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D87" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E87" t="n">
         <v>223</v>
       </c>
       <c r="F87" t="n">
-        <v>1149.5541</v>
+        <v>997.1088999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>224.7833333333333</v>
+        <v>224.75</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2644,24 +2907,27 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C88" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D88" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E88" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F88" t="n">
-        <v>284.4058</v>
+        <v>1149.5541</v>
       </c>
       <c r="G88" t="n">
-        <v>224.8333333333333</v>
+        <v>224.7833333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C89" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D89" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E89" t="n">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>284.4058</v>
       </c>
       <c r="G89" t="n">
-        <v>224.8666666666667</v>
+        <v>224.8333333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2711,9 +2980,12 @@
         <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>224.9333333333333</v>
+        <v>224.8666666666667</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>228</v>
       </c>
       <c r="F91" t="n">
-        <v>1519.7118</v>
+        <v>11</v>
       </c>
       <c r="G91" t="n">
-        <v>224.9833333333333</v>
+        <v>224.9333333333333</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2751,21 +3026,24 @@
         <v>228</v>
       </c>
       <c r="C92" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D92" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E92" t="n">
         <v>228</v>
       </c>
       <c r="F92" t="n">
-        <v>17817.7407</v>
+        <v>1519.7118</v>
       </c>
       <c r="G92" t="n">
-        <v>225.1</v>
+        <v>224.9833333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C93" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D93" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E93" t="n">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F93" t="n">
-        <v>8853.1126</v>
+        <v>17817.7407</v>
       </c>
       <c r="G93" t="n">
-        <v>225.3</v>
+        <v>225.1</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
+        <v>234</v>
+      </c>
+      <c r="C94" t="n">
         <v>237</v>
-      </c>
-      <c r="C94" t="n">
-        <v>236</v>
       </c>
       <c r="D94" t="n">
         <v>237</v>
       </c>
       <c r="E94" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F94" t="n">
-        <v>9547.7327</v>
+        <v>8853.1126</v>
       </c>
       <c r="G94" t="n">
-        <v>225.55</v>
+        <v>225.3</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,21 +3113,24 @@
         <v>237</v>
       </c>
       <c r="C95" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D95" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E95" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F95" t="n">
-        <v>9794.395399999999</v>
+        <v>9547.7327</v>
       </c>
       <c r="G95" t="n">
-        <v>225.8166666666667</v>
+        <v>225.55</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
+        <v>237</v>
+      </c>
+      <c r="C96" t="n">
         <v>238</v>
       </c>
-      <c r="C96" t="n">
-        <v>239</v>
-      </c>
       <c r="D96" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F96" t="n">
-        <v>11929.1804</v>
+        <v>9794.395399999999</v>
       </c>
       <c r="G96" t="n">
-        <v>226.0666666666667</v>
+        <v>225.8166666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,21 +3171,24 @@
         <v>238</v>
       </c>
       <c r="C97" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D97" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E97" t="n">
         <v>238</v>
       </c>
       <c r="F97" t="n">
-        <v>2370.8914</v>
+        <v>11929.1804</v>
       </c>
       <c r="G97" t="n">
-        <v>226.35</v>
+        <v>226.0666666666667</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C98" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D98" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E98" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F98" t="n">
-        <v>6321.499</v>
+        <v>2370.8914</v>
       </c>
       <c r="G98" t="n">
-        <v>226.6</v>
+        <v>226.35</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
+        <v>236</v>
+      </c>
+      <c r="C99" t="n">
         <v>239</v>
       </c>
-      <c r="C99" t="n">
-        <v>245</v>
-      </c>
       <c r="D99" t="n">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E99" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F99" t="n">
-        <v>32894.2661755102</v>
+        <v>6321.499</v>
       </c>
       <c r="G99" t="n">
-        <v>226.95</v>
+        <v>226.6</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>239</v>
+      </c>
+      <c r="C100" t="n">
         <v>245</v>
       </c>
-      <c r="C100" t="n">
-        <v>252</v>
-      </c>
       <c r="D100" t="n">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E100" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F100" t="n">
-        <v>88244.36960068028</v>
+        <v>32894.2661755102</v>
       </c>
       <c r="G100" t="n">
-        <v>227.45</v>
+        <v>226.95</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,7 +3284,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C101" t="n">
         <v>252</v>
@@ -2991,15 +3293,18 @@
         <v>252</v>
       </c>
       <c r="E101" t="n">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F101" t="n">
-        <v>50595.7813</v>
+        <v>88244.36960068028</v>
       </c>
       <c r="G101" t="n">
-        <v>227.95</v>
+        <v>227.45</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3011,22 +3316,25 @@
         <v>249</v>
       </c>
       <c r="C102" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D102" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E102" t="n">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F102" t="n">
-        <v>68.4037</v>
+        <v>50595.7813</v>
       </c>
       <c r="G102" t="n">
-        <v>228.35</v>
+        <v>227.95</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -3034,25 +3342,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C103" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D103" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E103" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F103" t="n">
-        <v>4352.9504</v>
+        <v>68.4037</v>
       </c>
       <c r="G103" t="n">
-        <v>228.7333333333333</v>
+        <v>228.35</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3072,12 +3383,15 @@
         <v>248</v>
       </c>
       <c r="F104" t="n">
-        <v>2264.7583</v>
+        <v>4352.9504</v>
       </c>
       <c r="G104" t="n">
-        <v>229.1166666666667</v>
+        <v>228.7333333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C105" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D105" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E105" t="n">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F105" t="n">
-        <v>4965</v>
+        <v>2264.7583</v>
       </c>
       <c r="G105" t="n">
-        <v>229.5</v>
+        <v>229.1166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,10 +3429,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>245</v>
+      </c>
+      <c r="C106" t="n">
         <v>247</v>
-      </c>
-      <c r="C106" t="n">
-        <v>245</v>
       </c>
       <c r="D106" t="n">
         <v>247</v>
@@ -3124,12 +3441,15 @@
         <v>245</v>
       </c>
       <c r="F106" t="n">
-        <v>8512.208199999999</v>
+        <v>4965</v>
       </c>
       <c r="G106" t="n">
-        <v>229.8333333333333</v>
+        <v>229.5</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C107" t="n">
         <v>245</v>
       </c>
       <c r="D107" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E107" t="n">
         <v>245</v>
       </c>
       <c r="F107" t="n">
-        <v>941.3905</v>
+        <v>8512.208199999999</v>
       </c>
       <c r="G107" t="n">
-        <v>230.1666666666667</v>
+        <v>229.8333333333333</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>245</v>
       </c>
       <c r="F108" t="n">
-        <v>1897.1121</v>
+        <v>941.3905</v>
       </c>
       <c r="G108" t="n">
-        <v>230.55</v>
+        <v>230.1666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>245</v>
       </c>
       <c r="F109" t="n">
-        <v>354.947</v>
+        <v>1897.1121</v>
       </c>
       <c r="G109" t="n">
-        <v>230.8833333333333</v>
+        <v>230.55</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C110" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D110" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E110" t="n">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F110" t="n">
-        <v>117.2351</v>
+        <v>354.947</v>
       </c>
       <c r="G110" t="n">
-        <v>231.25</v>
+        <v>230.8833333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,12 +3586,15 @@
         <v>247</v>
       </c>
       <c r="F111" t="n">
-        <v>105.8804</v>
+        <v>117.2351</v>
       </c>
       <c r="G111" t="n">
-        <v>231.65</v>
+        <v>231.25</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>247</v>
       </c>
       <c r="F112" t="n">
-        <v>538.3443</v>
+        <v>105.8804</v>
       </c>
       <c r="G112" t="n">
-        <v>232.0166666666667</v>
+        <v>231.65</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3297,21 +3635,24 @@
         <v>247</v>
       </c>
       <c r="C113" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D113" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E113" t="n">
         <v>247</v>
       </c>
       <c r="F113" t="n">
-        <v>1514.4838</v>
+        <v>538.3443</v>
       </c>
       <c r="G113" t="n">
-        <v>232.4</v>
+        <v>232.0166666666667</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,7 +3661,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C114" t="n">
         <v>248</v>
@@ -3329,15 +3670,18 @@
         <v>248</v>
       </c>
       <c r="E114" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F114" t="n">
-        <v>1449.903</v>
+        <v>1514.4838</v>
       </c>
       <c r="G114" t="n">
-        <v>232.7833333333333</v>
+        <v>232.4</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3352,18 +3696,21 @@
         <v>248</v>
       </c>
       <c r="D115" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E115" t="n">
         <v>248</v>
       </c>
       <c r="F115" t="n">
-        <v>55.9425</v>
+        <v>1449.903</v>
       </c>
       <c r="G115" t="n">
-        <v>233.1666666666667</v>
+        <v>232.7833333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3378,18 +3725,21 @@
         <v>248</v>
       </c>
       <c r="D116" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E116" t="n">
         <v>248</v>
       </c>
       <c r="F116" t="n">
-        <v>42.4023</v>
+        <v>55.9425</v>
       </c>
       <c r="G116" t="n">
-        <v>233.5333333333333</v>
+        <v>233.1666666666667</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,7 +3748,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C117" t="n">
         <v>248</v>
@@ -3407,15 +3757,18 @@
         <v>248</v>
       </c>
       <c r="E117" t="n">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="F117" t="n">
-        <v>51.6963</v>
+        <v>42.4023</v>
       </c>
       <c r="G117" t="n">
-        <v>233.9</v>
+        <v>233.5333333333333</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C118" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D118" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E118" t="n">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F118" t="n">
-        <v>823.0452</v>
+        <v>51.6963</v>
       </c>
       <c r="G118" t="n">
-        <v>234.1666666666667</v>
+        <v>233.9</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C119" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D119" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E119" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F119" t="n">
-        <v>320.6225</v>
+        <v>823.0452</v>
       </c>
       <c r="G119" t="n">
-        <v>234.4666666666667</v>
+        <v>234.1666666666667</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C120" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="D120" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E120" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F120" t="n">
-        <v>2.3</v>
+        <v>320.6225</v>
       </c>
       <c r="G120" t="n">
-        <v>234.6666666666667</v>
+        <v>234.4666666666667</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C121" t="n">
         <v>241</v>
       </c>
       <c r="D121" t="n">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E121" t="n">
         <v>241</v>
       </c>
       <c r="F121" t="n">
-        <v>235.8349</v>
+        <v>2.3</v>
       </c>
       <c r="G121" t="n">
-        <v>234.8833333333333</v>
+        <v>234.6666666666667</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
+        <v>246</v>
+      </c>
+      <c r="C122" t="n">
         <v>241</v>
       </c>
-      <c r="C122" t="n">
-        <v>239</v>
-      </c>
       <c r="D122" t="n">
+        <v>246</v>
+      </c>
+      <c r="E122" t="n">
         <v>241</v>
       </c>
-      <c r="E122" t="n">
-        <v>239</v>
-      </c>
       <c r="F122" t="n">
-        <v>941.3905</v>
+        <v>235.8349</v>
       </c>
       <c r="G122" t="n">
-        <v>235.0666666666667</v>
+        <v>234.8833333333333</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,24 +3922,27 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>241</v>
+      </c>
+      <c r="C123" t="n">
         <v>239</v>
       </c>
-      <c r="C123" t="n">
-        <v>238</v>
-      </c>
       <c r="D123" t="n">
+        <v>241</v>
+      </c>
+      <c r="E123" t="n">
         <v>239</v>
       </c>
-      <c r="E123" t="n">
-        <v>238</v>
-      </c>
       <c r="F123" t="n">
-        <v>13169.7773</v>
+        <v>941.3905</v>
       </c>
       <c r="G123" t="n">
-        <v>235.2833333333333</v>
+        <v>235.0666666666667</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>239</v>
+      </c>
+      <c r="C124" t="n">
         <v>238</v>
       </c>
-      <c r="C124" t="n">
-        <v>236</v>
-      </c>
       <c r="D124" t="n">
+        <v>239</v>
+      </c>
+      <c r="E124" t="n">
         <v>238</v>
       </c>
-      <c r="E124" t="n">
-        <v>236</v>
-      </c>
       <c r="F124" t="n">
-        <v>7838.8275</v>
+        <v>13169.7773</v>
       </c>
       <c r="G124" t="n">
-        <v>235.4666666666667</v>
+        <v>235.2833333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C125" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D125" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E125" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F125" t="n">
-        <v>714.8738</v>
+        <v>7838.8275</v>
       </c>
       <c r="G125" t="n">
-        <v>235.6666666666667</v>
+        <v>235.4666666666667</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,24 +4009,27 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C126" t="n">
         <v>237</v>
       </c>
       <c r="D126" t="n">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E126" t="n">
         <v>237</v>
       </c>
       <c r="F126" t="n">
-        <v>99.29340000000001</v>
+        <v>714.8738</v>
       </c>
       <c r="G126" t="n">
-        <v>235.8666666666667</v>
+        <v>235.6666666666667</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>237</v>
       </c>
       <c r="C127" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D127" t="n">
         <v>237</v>
       </c>
       <c r="E127" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F127" t="n">
-        <v>1359.5404</v>
+        <v>99.29340000000001</v>
       </c>
       <c r="G127" t="n">
-        <v>236.0166666666667</v>
+        <v>235.8666666666667</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,24 +4067,27 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>237</v>
+      </c>
+      <c r="C128" t="n">
         <v>236</v>
       </c>
-      <c r="C128" t="n">
-        <v>233</v>
-      </c>
       <c r="D128" t="n">
+        <v>237</v>
+      </c>
+      <c r="E128" t="n">
         <v>236</v>
       </c>
-      <c r="E128" t="n">
-        <v>233</v>
-      </c>
       <c r="F128" t="n">
-        <v>4621.5274</v>
+        <v>1359.5404</v>
       </c>
       <c r="G128" t="n">
-        <v>236.1</v>
+        <v>236.0166666666667</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C129" t="n">
         <v>233</v>
       </c>
       <c r="D129" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E129" t="n">
         <v>233</v>
       </c>
       <c r="F129" t="n">
-        <v>3</v>
+        <v>4621.5274</v>
       </c>
       <c r="G129" t="n">
-        <v>236.2</v>
+        <v>236.1</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C130" t="n">
         <v>233</v>
       </c>
       <c r="D130" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E130" t="n">
         <v>233</v>
       </c>
       <c r="F130" t="n">
-        <v>1331.2405</v>
+        <v>3</v>
       </c>
       <c r="G130" t="n">
-        <v>236.3</v>
+        <v>236.2</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>233</v>
       </c>
       <c r="F131" t="n">
-        <v>5606.7318</v>
+        <v>1331.2405</v>
       </c>
       <c r="G131" t="n">
-        <v>236.4166666666667</v>
+        <v>236.3</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C132" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D132" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E132" t="n">
         <v>233</v>
       </c>
       <c r="F132" t="n">
-        <v>14362.4217</v>
+        <v>5606.7318</v>
       </c>
       <c r="G132" t="n">
-        <v>236.6166666666667</v>
+        <v>236.4166666666667</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3817,21 +4215,24 @@
         <v>235</v>
       </c>
       <c r="C133" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D133" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E133" t="n">
         <v>233</v>
       </c>
       <c r="F133" t="n">
-        <v>6</v>
+        <v>14362.4217</v>
       </c>
       <c r="G133" t="n">
-        <v>236.75</v>
+        <v>236.6166666666667</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,24 +4241,27 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C134" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D134" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E134" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F134" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G134" t="n">
-        <v>236.85</v>
+        <v>236.75</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3866,24 +4270,27 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C135" t="n">
         <v>234</v>
       </c>
       <c r="D135" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E135" t="n">
         <v>234</v>
       </c>
       <c r="F135" t="n">
-        <v>70.34220000000001</v>
+        <v>17</v>
       </c>
       <c r="G135" t="n">
-        <v>236.95</v>
+        <v>236.85</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C136" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D136" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E136" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F136" t="n">
-        <v>64.04600000000001</v>
+        <v>70.34220000000001</v>
       </c>
       <c r="G136" t="n">
-        <v>237.0833333333333</v>
+        <v>236.95</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C137" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D137" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E137" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F137" t="n">
-        <v>3</v>
+        <v>64.04600000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>237.2333333333333</v>
+        <v>237.0833333333333</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C138" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D138" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E138" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F138" t="n">
-        <v>3783.1447</v>
+        <v>3</v>
       </c>
       <c r="G138" t="n">
-        <v>237.3833333333333</v>
+        <v>237.2333333333333</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C139" t="n">
         <v>233</v>
       </c>
       <c r="D139" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E139" t="n">
         <v>233</v>
       </c>
       <c r="F139" t="n">
-        <v>2734.1415</v>
+        <v>3783.1447</v>
       </c>
       <c r="G139" t="n">
-        <v>237.5333333333333</v>
+        <v>237.3833333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3996,24 +4415,27 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C140" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D140" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E140" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F140" t="n">
-        <v>2463.7274</v>
+        <v>2734.1415</v>
       </c>
       <c r="G140" t="n">
-        <v>237.6666666666667</v>
+        <v>237.5333333333333</v>
       </c>
       <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C141" t="n">
         <v>232</v>
       </c>
       <c r="D141" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E141" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F141" t="n">
-        <v>4993.681</v>
+        <v>2463.7274</v>
       </c>
       <c r="G141" t="n">
-        <v>237.8</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H141" t="n">
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>233</v>
       </c>
       <c r="C142" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D142" t="n">
         <v>234</v>
       </c>
       <c r="E142" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F142" t="n">
-        <v>4323.0135</v>
+        <v>4993.681</v>
       </c>
       <c r="G142" t="n">
-        <v>237.9833333333333</v>
+        <v>237.8</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,24 +4502,27 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C143" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D143" t="n">
         <v>234</v>
       </c>
       <c r="E143" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F143" t="n">
-        <v>11214.2516</v>
+        <v>4323.0135</v>
       </c>
       <c r="G143" t="n">
-        <v>238.1833333333333</v>
+        <v>237.9833333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C144" t="n">
         <v>232</v>
       </c>
       <c r="D144" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E144" t="n">
         <v>232</v>
       </c>
       <c r="F144" t="n">
-        <v>2595.0296</v>
+        <v>11214.2516</v>
       </c>
       <c r="G144" t="n">
-        <v>238.3833333333333</v>
+        <v>238.1833333333333</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4126,24 +4560,27 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C145" t="n">
         <v>232</v>
       </c>
       <c r="D145" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E145" t="n">
         <v>232</v>
       </c>
       <c r="F145" t="n">
-        <v>3</v>
+        <v>2595.0296</v>
       </c>
       <c r="G145" t="n">
-        <v>238.5333333333333</v>
+        <v>238.3833333333333</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C146" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D146" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E146" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F146" t="n">
-        <v>70.6061</v>
+        <v>3</v>
       </c>
       <c r="G146" t="n">
-        <v>238.7</v>
+        <v>238.5333333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C147" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D147" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E147" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F147" t="n">
-        <v>3</v>
+        <v>70.6061</v>
       </c>
       <c r="G147" t="n">
-        <v>238.8333333333333</v>
+        <v>238.7</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,24 +4647,27 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C148" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D148" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E148" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F148" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>238.9666666666667</v>
+        <v>238.8333333333333</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C149" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D149" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E149" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F149" t="n">
-        <v>3603.202</v>
+        <v>1000</v>
       </c>
       <c r="G149" t="n">
-        <v>239.0333333333333</v>
+        <v>238.9666666666667</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C150" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D150" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E150" t="n">
         <v>232</v>
       </c>
       <c r="F150" t="n">
-        <v>6565.6075</v>
+        <v>3603.202</v>
       </c>
       <c r="G150" t="n">
-        <v>239.15</v>
+        <v>239.0333333333333</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C151" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D151" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E151" t="n">
         <v>232</v>
       </c>
       <c r="F151" t="n">
-        <v>3</v>
+        <v>6565.6075</v>
       </c>
       <c r="G151" t="n">
-        <v>239.2166666666667</v>
+        <v>239.15</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,24 +4763,27 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C152" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D152" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E152" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F152" t="n">
-        <v>2446.5596</v>
+        <v>3</v>
       </c>
       <c r="G152" t="n">
-        <v>239.1833333333333</v>
+        <v>239.2166666666667</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C153" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D153" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E153" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F153" t="n">
-        <v>93.5629</v>
+        <v>2446.5596</v>
       </c>
       <c r="G153" t="n">
-        <v>239.1</v>
+        <v>239.1833333333333</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>234</v>
+      </c>
+      <c r="C154" t="n">
         <v>232</v>
       </c>
-      <c r="C154" t="n">
-        <v>230</v>
-      </c>
       <c r="D154" t="n">
+        <v>234</v>
+      </c>
+      <c r="E154" t="n">
         <v>232</v>
       </c>
-      <c r="E154" t="n">
-        <v>230</v>
-      </c>
       <c r="F154" t="n">
-        <v>7972.8212</v>
+        <v>93.5629</v>
       </c>
       <c r="G154" t="n">
-        <v>239</v>
+        <v>239.1</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C155" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D155" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E155" t="n">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F155" t="n">
-        <v>11481.5003</v>
+        <v>7972.8212</v>
       </c>
       <c r="G155" t="n">
-        <v>238.85</v>
+        <v>239</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4424,12 +4891,15 @@
         <v>229</v>
       </c>
       <c r="F156" t="n">
-        <v>3</v>
+        <v>11481.5003</v>
       </c>
       <c r="G156" t="n">
-        <v>238.6833333333333</v>
+        <v>238.85</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4441,21 +4911,24 @@
         <v>229</v>
       </c>
       <c r="C157" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D157" t="n">
         <v>229</v>
       </c>
       <c r="E157" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F157" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G157" t="n">
-        <v>238.5166666666667</v>
+        <v>238.6833333333333</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C158" t="n">
         <v>228</v>
       </c>
       <c r="D158" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E158" t="n">
         <v>228</v>
       </c>
       <c r="F158" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G158" t="n">
-        <v>238.3333333333333</v>
+        <v>238.5166666666667</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4505,9 +4981,12 @@
         <v>3</v>
       </c>
       <c r="G159" t="n">
-        <v>238.05</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4528,12 +5007,15 @@
         <v>228</v>
       </c>
       <c r="F160" t="n">
-        <v>5748.3603</v>
+        <v>3</v>
       </c>
       <c r="G160" t="n">
-        <v>237.65</v>
+        <v>238.05</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C161" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D161" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E161" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F161" t="n">
-        <v>4</v>
+        <v>5748.3603</v>
       </c>
       <c r="G161" t="n">
-        <v>237.2666666666667</v>
+        <v>237.65</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4580,12 +5065,15 @@
         <v>229</v>
       </c>
       <c r="F162" t="n">
-        <v>305.606</v>
+        <v>4</v>
       </c>
       <c r="G162" t="n">
-        <v>236.9333333333333</v>
+        <v>237.2666666666667</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C163" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D163" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E163" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F163" t="n">
-        <v>3</v>
+        <v>305.606</v>
       </c>
       <c r="G163" t="n">
-        <v>236.6</v>
+        <v>236.9333333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4632,12 +5123,15 @@
         <v>228</v>
       </c>
       <c r="F164" t="n">
-        <v>2862.6397</v>
+        <v>3</v>
       </c>
       <c r="G164" t="n">
-        <v>236.2666666666667</v>
+        <v>236.6</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C165" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D165" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E165" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F165" t="n">
-        <v>3</v>
+        <v>2862.6397</v>
       </c>
       <c r="G165" t="n">
-        <v>235.9166666666667</v>
+        <v>236.2666666666667</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>226</v>
       </c>
       <c r="F166" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="G166" t="n">
-        <v>235.6</v>
+        <v>235.9166666666667</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4710,12 +5210,15 @@
         <v>226</v>
       </c>
       <c r="F167" t="n">
-        <v>8190.3082</v>
+        <v>50</v>
       </c>
       <c r="G167" t="n">
-        <v>235.2833333333333</v>
+        <v>235.6</v>
       </c>
       <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C168" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D168" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E168" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F168" t="n">
-        <v>1.2</v>
+        <v>8190.3082</v>
       </c>
       <c r="G168" t="n">
-        <v>235.0333333333333</v>
+        <v>235.2833333333333</v>
       </c>
       <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4753,21 +5259,24 @@
         <v>230</v>
       </c>
       <c r="C169" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D169" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E169" t="n">
         <v>230</v>
       </c>
       <c r="F169" t="n">
-        <v>13917.0325</v>
+        <v>1.2</v>
       </c>
       <c r="G169" t="n">
-        <v>234.85</v>
+        <v>235.0333333333333</v>
       </c>
       <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4776,24 +5285,27 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C170" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D170" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E170" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F170" t="n">
-        <v>209.566</v>
+        <v>13917.0325</v>
       </c>
       <c r="G170" t="n">
-        <v>234.65</v>
+        <v>234.85</v>
       </c>
       <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4805,21 +5317,24 @@
         <v>234</v>
       </c>
       <c r="C171" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D171" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E171" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F171" t="n">
-        <v>6074.315</v>
+        <v>209.566</v>
       </c>
       <c r="G171" t="n">
-        <v>234.3833333333333</v>
+        <v>234.65</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C172" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D172" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E172" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F172" t="n">
-        <v>3</v>
+        <v>6074.315</v>
       </c>
       <c r="G172" t="n">
-        <v>234.1833333333333</v>
+        <v>234.3833333333333</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4869,9 +5387,12 @@
         <v>3</v>
       </c>
       <c r="G173" t="n">
-        <v>233.9666666666667</v>
+        <v>234.1833333333333</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4895,9 +5416,12 @@
         <v>3</v>
       </c>
       <c r="G174" t="n">
-        <v>233.75</v>
+        <v>233.9666666666667</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,12 +5442,15 @@
         <v>235</v>
       </c>
       <c r="F175" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G175" t="n">
-        <v>233.5333333333333</v>
+        <v>233.75</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,12 +5471,15 @@
         <v>235</v>
       </c>
       <c r="F176" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="G176" t="n">
-        <v>233.3166666666667</v>
+        <v>233.5333333333333</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,7 +5488,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C177" t="n">
         <v>235</v>
@@ -4967,15 +5497,18 @@
         <v>235</v>
       </c>
       <c r="E177" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F177" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G177" t="n">
-        <v>233.1</v>
+        <v>233.3166666666667</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,7 +5517,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C178" t="n">
         <v>235</v>
@@ -4993,15 +5526,18 @@
         <v>235</v>
       </c>
       <c r="E178" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F178" t="n">
-        <v>2.13</v>
+        <v>23</v>
       </c>
       <c r="G178" t="n">
-        <v>232.9666666666667</v>
+        <v>233.1</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5022,12 +5558,15 @@
         <v>235</v>
       </c>
       <c r="F179" t="n">
-        <v>500</v>
+        <v>2.13</v>
       </c>
       <c r="G179" t="n">
-        <v>232.7833333333333</v>
+        <v>232.9666666666667</v>
       </c>
       <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5036,24 +5575,27 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C180" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D180" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E180" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F180" t="n">
-        <v>23</v>
+        <v>500</v>
       </c>
       <c r="G180" t="n">
-        <v>232.6666666666667</v>
+        <v>232.7833333333333</v>
       </c>
       <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5074,12 +5616,15 @@
         <v>234</v>
       </c>
       <c r="F181" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G181" t="n">
-        <v>232.55</v>
+        <v>232.6666666666667</v>
       </c>
       <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5088,24 +5633,27 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C182" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D182" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E182" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F182" t="n">
-        <v>31.7324</v>
+        <v>6</v>
       </c>
       <c r="G182" t="n">
-        <v>232.4833333333333</v>
+        <v>232.55</v>
       </c>
       <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5117,21 +5665,24 @@
         <v>235</v>
       </c>
       <c r="C183" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D183" t="n">
         <v>235</v>
       </c>
       <c r="E183" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F183" t="n">
-        <v>23</v>
+        <v>31.7324</v>
       </c>
       <c r="G183" t="n">
-        <v>232.4166666666667</v>
+        <v>232.4833333333333</v>
       </c>
       <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5140,24 +5691,27 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C184" t="n">
         <v>234</v>
       </c>
       <c r="D184" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E184" t="n">
         <v>234</v>
       </c>
       <c r="F184" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G184" t="n">
-        <v>232.3833333333333</v>
+        <v>232.4166666666667</v>
       </c>
       <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5166,24 +5720,27 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C185" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D185" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E185" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F185" t="n">
-        <v>1852.819</v>
+        <v>6</v>
       </c>
       <c r="G185" t="n">
-        <v>232.3</v>
+        <v>232.3833333333333</v>
       </c>
       <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5192,24 +5749,27 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C186" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D186" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E186" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F186" t="n">
-        <v>15442.5695</v>
+        <v>1852.819</v>
       </c>
       <c r="G186" t="n">
-        <v>232.1833333333333</v>
+        <v>232.3</v>
       </c>
       <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5218,24 +5778,27 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C187" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D187" t="n">
         <v>235</v>
       </c>
       <c r="E187" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F187" t="n">
-        <v>6087.2049</v>
+        <v>15442.5695</v>
       </c>
       <c r="G187" t="n">
-        <v>232.1333333333333</v>
+        <v>232.1833333333333</v>
       </c>
       <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,24 +5807,27 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C188" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D188" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E188" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F188" t="n">
-        <v>20218.2719</v>
+        <v>6087.2049</v>
       </c>
       <c r="G188" t="n">
-        <v>232.15</v>
+        <v>232.1333333333333</v>
       </c>
       <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5279,15 +5845,18 @@
         <v>234</v>
       </c>
       <c r="E189" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F189" t="n">
-        <v>3</v>
+        <v>20218.2719</v>
       </c>
       <c r="G189" t="n">
-        <v>232.1666666666667</v>
+        <v>232.15</v>
       </c>
       <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5296,16 +5865,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C190" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D190" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E190" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F190" t="n">
         <v>3</v>
@@ -5314,6 +5883,9 @@
         <v>232.1666666666667</v>
       </c>
       <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5322,24 +5894,27 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C191" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D191" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E191" t="n">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F191" t="n">
-        <v>3120.1889</v>
+        <v>3</v>
       </c>
       <c r="G191" t="n">
-        <v>232.15</v>
+        <v>232.1666666666667</v>
       </c>
       <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5348,7 +5923,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C192" t="n">
         <v>232</v>
@@ -5357,15 +5932,18 @@
         <v>232</v>
       </c>
       <c r="E192" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F192" t="n">
-        <v>304.062</v>
+        <v>3120.1889</v>
       </c>
       <c r="G192" t="n">
-        <v>232.0833333333333</v>
+        <v>232.15</v>
       </c>
       <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5374,24 +5952,27 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
+        <v>228</v>
+      </c>
+      <c r="C193" t="n">
         <v>232</v>
       </c>
-      <c r="C193" t="n">
-        <v>234</v>
-      </c>
       <c r="D193" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E193" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F193" t="n">
-        <v>6</v>
+        <v>304.062</v>
       </c>
       <c r="G193" t="n">
-        <v>232.1</v>
+        <v>232.0833333333333</v>
       </c>
       <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5400,7 +5981,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C194" t="n">
         <v>234</v>
@@ -5409,15 +5990,18 @@
         <v>234</v>
       </c>
       <c r="E194" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F194" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G194" t="n">
         <v>232.1</v>
       </c>
       <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5426,24 +6010,27 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C195" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D195" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E195" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F195" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="G195" t="n">
-        <v>232.0833333333333</v>
+        <v>232.1</v>
       </c>
       <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5464,12 +6051,15 @@
         <v>233</v>
       </c>
       <c r="F196" t="n">
-        <v>196.8467</v>
+        <v>13</v>
       </c>
       <c r="G196" t="n">
-        <v>232.05</v>
+        <v>232.0833333333333</v>
       </c>
       <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5481,21 +6071,24 @@
         <v>233</v>
       </c>
       <c r="C197" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D197" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E197" t="n">
         <v>233</v>
       </c>
       <c r="F197" t="n">
-        <v>1205</v>
+        <v>196.8467</v>
       </c>
       <c r="G197" t="n">
         <v>232.05</v>
       </c>
       <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5507,21 +6100,24 @@
         <v>233</v>
       </c>
       <c r="C198" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D198" t="n">
+        <v>234</v>
+      </c>
+      <c r="E198" t="n">
         <v>233</v>
       </c>
-      <c r="E198" t="n">
-        <v>228</v>
-      </c>
       <c r="F198" t="n">
-        <v>1571.3501</v>
+        <v>1205</v>
       </c>
       <c r="G198" t="n">
-        <v>231.9666666666667</v>
+        <v>232.05</v>
       </c>
       <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5530,24 +6126,27 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C199" t="n">
+        <v>228</v>
+      </c>
+      <c r="D199" t="n">
         <v>233</v>
       </c>
-      <c r="D199" t="n">
-        <v>234</v>
-      </c>
       <c r="E199" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F199" t="n">
-        <v>6</v>
+        <v>1571.3501</v>
       </c>
       <c r="G199" t="n">
         <v>231.9666666666667</v>
       </c>
       <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5556,24 +6155,27 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="C200" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D200" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E200" t="n">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F200" t="n">
-        <v>3248.5231</v>
+        <v>6</v>
       </c>
       <c r="G200" t="n">
         <v>231.9666666666667</v>
       </c>
       <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5582,24 +6184,27 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C201" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D201" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E201" t="n">
         <v>228</v>
       </c>
       <c r="F201" t="n">
-        <v>4856.33</v>
+        <v>3248.5231</v>
       </c>
       <c r="G201" t="n">
-        <v>231.9</v>
+        <v>231.9666666666667</v>
       </c>
       <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5608,24 +6213,27 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C202" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D202" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E202" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F202" t="n">
-        <v>6</v>
+        <v>4856.33</v>
       </c>
       <c r="G202" t="n">
-        <v>231.8666666666667</v>
+        <v>231.9</v>
       </c>
       <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5634,24 +6242,27 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C203" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D203" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E203" t="n">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F203" t="n">
-        <v>3061.0431</v>
+        <v>6</v>
       </c>
       <c r="G203" t="n">
-        <v>231.8333333333333</v>
+        <v>231.8666666666667</v>
       </c>
       <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5669,15 +6280,18 @@
         <v>230</v>
       </c>
       <c r="E204" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F204" t="n">
-        <v>4895.1473</v>
+        <v>3061.0431</v>
       </c>
       <c r="G204" t="n">
-        <v>231.8</v>
+        <v>231.8333333333333</v>
       </c>
       <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5686,24 +6300,27 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C205" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D205" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E205" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F205" t="n">
-        <v>3</v>
+        <v>4895.1473</v>
       </c>
       <c r="G205" t="n">
-        <v>231.7833333333333</v>
+        <v>231.8</v>
       </c>
       <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5712,7 +6329,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C206" t="n">
         <v>231</v>
@@ -5721,15 +6338,18 @@
         <v>231</v>
       </c>
       <c r="E206" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F206" t="n">
-        <v>2943.9427</v>
+        <v>3</v>
       </c>
       <c r="G206" t="n">
-        <v>231.75</v>
+        <v>231.7833333333333</v>
       </c>
       <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,12 +6370,15 @@
         <v>230</v>
       </c>
       <c r="F207" t="n">
-        <v>1039.0567</v>
+        <v>2943.9427</v>
       </c>
       <c r="G207" t="n">
-        <v>231.7333333333333</v>
+        <v>231.75</v>
       </c>
       <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5764,7 +6387,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C208" t="n">
         <v>231</v>
@@ -5773,15 +6396,18 @@
         <v>231</v>
       </c>
       <c r="E208" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F208" t="n">
-        <v>491</v>
+        <v>1039.0567</v>
       </c>
       <c r="G208" t="n">
-        <v>231.6666666666667</v>
+        <v>231.7333333333333</v>
       </c>
       <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5790,24 +6416,27 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C209" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D209" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E209" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F209" t="n">
-        <v>213.105</v>
+        <v>491</v>
       </c>
       <c r="G209" t="n">
-        <v>231.6833333333333</v>
+        <v>231.6666666666667</v>
       </c>
       <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5816,24 +6445,27 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C210" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D210" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E210" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F210" t="n">
-        <v>807.8313000000001</v>
+        <v>213.105</v>
       </c>
       <c r="G210" t="n">
-        <v>231.6666666666667</v>
+        <v>231.6833333333333</v>
       </c>
       <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5854,12 +6486,15 @@
         <v>234</v>
       </c>
       <c r="F211" t="n">
-        <v>43</v>
+        <v>807.8313000000001</v>
       </c>
       <c r="G211" t="n">
-        <v>231.7</v>
+        <v>231.6666666666667</v>
       </c>
       <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5868,7 +6503,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C212" t="n">
         <v>234</v>
@@ -5877,15 +6512,18 @@
         <v>234</v>
       </c>
       <c r="E212" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F212" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G212" t="n">
-        <v>231.75</v>
+        <v>231.7</v>
       </c>
       <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5906,12 +6544,15 @@
         <v>232</v>
       </c>
       <c r="F213" t="n">
-        <v>3907.4254</v>
+        <v>14</v>
       </c>
       <c r="G213" t="n">
-        <v>231.7833333333333</v>
+        <v>231.75</v>
       </c>
       <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5920,24 +6561,27 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C214" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D214" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E214" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F214" t="n">
-        <v>2854.1178</v>
+        <v>3907.4254</v>
       </c>
       <c r="G214" t="n">
-        <v>231.8666666666667</v>
+        <v>231.7833333333333</v>
       </c>
       <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5949,21 +6593,24 @@
         <v>234</v>
       </c>
       <c r="C215" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D215" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E215" t="n">
         <v>234</v>
       </c>
       <c r="F215" t="n">
-        <v>890.2831</v>
+        <v>2854.1178</v>
       </c>
       <c r="G215" t="n">
-        <v>232</v>
+        <v>231.8666666666667</v>
       </c>
       <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,24 +6619,27 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>234</v>
+      </c>
+      <c r="C216" t="n">
         <v>237</v>
-      </c>
-      <c r="C216" t="n">
-        <v>235</v>
       </c>
       <c r="D216" t="n">
         <v>237</v>
       </c>
       <c r="E216" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F216" t="n">
-        <v>5973.922</v>
+        <v>890.2831</v>
       </c>
       <c r="G216" t="n">
-        <v>232.1</v>
+        <v>232</v>
       </c>
       <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5998,24 +6648,27 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C217" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D217" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E217" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F217" t="n">
-        <v>23709.2403</v>
+        <v>5973.922</v>
       </c>
       <c r="G217" t="n">
-        <v>232.2666666666667</v>
+        <v>232.1</v>
       </c>
       <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6024,24 +6677,27 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C218" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D218" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E218" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F218" t="n">
-        <v>3504.5767</v>
+        <v>23709.2403</v>
       </c>
       <c r="G218" t="n">
-        <v>232.4666666666667</v>
+        <v>232.2666666666667</v>
       </c>
       <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6050,7 +6706,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C219" t="n">
         <v>240</v>
@@ -6062,12 +6718,15 @@
         <v>240</v>
       </c>
       <c r="F219" t="n">
-        <v>4292.2347</v>
+        <v>3504.5767</v>
       </c>
       <c r="G219" t="n">
-        <v>232.6666666666667</v>
+        <v>232.4666666666667</v>
       </c>
       <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6088,12 +6747,15 @@
         <v>240</v>
       </c>
       <c r="F220" t="n">
-        <v>59</v>
+        <v>4292.2347</v>
       </c>
       <c r="G220" t="n">
-        <v>232.8666666666667</v>
+        <v>232.6666666666667</v>
       </c>
       <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6111,15 +6773,18 @@
         <v>242</v>
       </c>
       <c r="E221" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F221" t="n">
-        <v>22953.3245</v>
+        <v>59</v>
       </c>
       <c r="G221" t="n">
-        <v>233.05</v>
+        <v>232.8666666666667</v>
       </c>
       <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6128,24 +6793,27 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>242</v>
+      </c>
+      <c r="C222" t="n">
         <v>240</v>
-      </c>
-      <c r="C222" t="n">
-        <v>242</v>
       </c>
       <c r="D222" t="n">
         <v>242</v>
       </c>
       <c r="E222" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F222" t="n">
-        <v>1087.8401</v>
+        <v>22953.3245</v>
       </c>
       <c r="G222" t="n">
-        <v>233.2666666666667</v>
+        <v>233.05</v>
       </c>
       <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6154,7 +6822,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C223" t="n">
         <v>242</v>
@@ -6163,15 +6831,18 @@
         <v>242</v>
       </c>
       <c r="E223" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F223" t="n">
-        <v>4132.2315</v>
+        <v>1087.8401</v>
       </c>
       <c r="G223" t="n">
-        <v>233.5</v>
+        <v>233.2666666666667</v>
       </c>
       <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6192,12 +6863,15 @@
         <v>242</v>
       </c>
       <c r="F224" t="n">
-        <v>602.6313</v>
+        <v>4132.2315</v>
       </c>
       <c r="G224" t="n">
-        <v>233.7333333333333</v>
+        <v>233.5</v>
       </c>
       <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6209,21 +6883,24 @@
         <v>242</v>
       </c>
       <c r="C225" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D225" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E225" t="n">
         <v>242</v>
       </c>
       <c r="F225" t="n">
-        <v>1756.6307</v>
+        <v>602.6313</v>
       </c>
       <c r="G225" t="n">
-        <v>234.0333333333333</v>
+        <v>233.7333333333333</v>
       </c>
       <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6232,24 +6909,27 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C226" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D226" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E226" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F226" t="n">
-        <v>3300.3095</v>
+        <v>1756.6307</v>
       </c>
       <c r="G226" t="n">
-        <v>234.3166666666667</v>
+        <v>234.0333333333333</v>
       </c>
       <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6261,21 +6941,24 @@
         <v>243</v>
       </c>
       <c r="C227" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D227" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E227" t="n">
         <v>243</v>
       </c>
       <c r="F227" t="n">
-        <v>3620.8296</v>
+        <v>3300.3095</v>
       </c>
       <c r="G227" t="n">
-        <v>234.6166666666667</v>
+        <v>234.3166666666667</v>
       </c>
       <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6287,7 +6970,7 @@
         <v>243</v>
       </c>
       <c r="C228" t="n">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D228" t="n">
         <v>244</v>
@@ -6296,12 +6979,15 @@
         <v>243</v>
       </c>
       <c r="F228" t="n">
-        <v>7184.4884</v>
+        <v>3620.8296</v>
       </c>
       <c r="G228" t="n">
-        <v>234.8333333333333</v>
+        <v>234.6166666666667</v>
       </c>
       <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6310,24 +6996,27 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C229" t="n">
         <v>243</v>
       </c>
       <c r="D229" t="n">
+        <v>244</v>
+      </c>
+      <c r="E229" t="n">
         <v>243</v>
       </c>
-      <c r="E229" t="n">
-        <v>239</v>
-      </c>
       <c r="F229" t="n">
-        <v>17873.8073</v>
+        <v>7184.4884</v>
       </c>
       <c r="G229" t="n">
-        <v>234.9833333333333</v>
+        <v>234.8333333333333</v>
       </c>
       <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6336,7 +7025,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C230" t="n">
         <v>243</v>
@@ -6345,15 +7034,18 @@
         <v>243</v>
       </c>
       <c r="E230" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F230" t="n">
-        <v>3480.655</v>
+        <v>17873.8073</v>
       </c>
       <c r="G230" t="n">
-        <v>235.1166666666667</v>
+        <v>234.9833333333333</v>
       </c>
       <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6362,24 +7054,27 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C231" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D231" t="n">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E231" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F231" t="n">
-        <v>4836.3175</v>
+        <v>3480.655</v>
       </c>
       <c r="G231" t="n">
-        <v>235.3</v>
+        <v>235.1166666666667</v>
       </c>
       <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6388,7 +7083,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C232" t="n">
         <v>242</v>
@@ -6397,15 +7092,18 @@
         <v>242</v>
       </c>
       <c r="E232" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F232" t="n">
-        <v>3</v>
+        <v>4836.3175</v>
       </c>
       <c r="G232" t="n">
-        <v>235.4166666666667</v>
+        <v>235.3</v>
       </c>
       <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6414,24 +7112,27 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C233" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D233" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E233" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F233" t="n">
-        <v>625.2894</v>
+        <v>3</v>
       </c>
       <c r="G233" t="n">
-        <v>235.5166666666667</v>
+        <v>235.4166666666667</v>
       </c>
       <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6440,24 +7141,27 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C234" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D234" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E234" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F234" t="n">
-        <v>9026.063599999999</v>
+        <v>625.2894</v>
       </c>
       <c r="G234" t="n">
-        <v>235.6333333333333</v>
+        <v>235.5166666666667</v>
       </c>
       <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6469,21 +7173,24 @@
         <v>240</v>
       </c>
       <c r="C235" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D235" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E235" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F235" t="n">
-        <v>510.9355</v>
+        <v>9026.063599999999</v>
       </c>
       <c r="G235" t="n">
-        <v>235.7333333333333</v>
+        <v>235.6333333333333</v>
       </c>
       <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6492,24 +7199,27 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
+        <v>240</v>
+      </c>
+      <c r="C236" t="n">
         <v>241</v>
       </c>
-      <c r="C236" t="n">
-        <v>240</v>
-      </c>
       <c r="D236" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E236" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F236" t="n">
-        <v>240.4342</v>
+        <v>510.9355</v>
       </c>
       <c r="G236" t="n">
-        <v>235.8166666666667</v>
+        <v>235.7333333333333</v>
       </c>
       <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6518,24 +7228,27 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>241</v>
+      </c>
+      <c r="C237" t="n">
         <v>240</v>
       </c>
-      <c r="C237" t="n">
-        <v>239</v>
-      </c>
       <c r="D237" t="n">
+        <v>242</v>
+      </c>
+      <c r="E237" t="n">
         <v>240</v>
       </c>
-      <c r="E237" t="n">
-        <v>239</v>
-      </c>
       <c r="F237" t="n">
-        <v>6986.081766666666</v>
+        <v>240.4342</v>
       </c>
       <c r="G237" t="n">
-        <v>235.8833333333333</v>
+        <v>235.8166666666667</v>
       </c>
       <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6556,12 +7269,15 @@
         <v>239</v>
       </c>
       <c r="F238" t="n">
-        <v>929.4008</v>
+        <v>6986.081766666666</v>
       </c>
       <c r="G238" t="n">
-        <v>235.95</v>
+        <v>235.8833333333333</v>
       </c>
       <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6570,24 +7286,27 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
+        <v>240</v>
+      </c>
+      <c r="C239" t="n">
         <v>239</v>
       </c>
-      <c r="C239" t="n">
-        <v>238</v>
-      </c>
       <c r="D239" t="n">
+        <v>240</v>
+      </c>
+      <c r="E239" t="n">
         <v>239</v>
       </c>
-      <c r="E239" t="n">
-        <v>238</v>
-      </c>
       <c r="F239" t="n">
-        <v>761.828</v>
+        <v>929.4008</v>
       </c>
       <c r="G239" t="n">
-        <v>236</v>
+        <v>235.95</v>
       </c>
       <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6596,24 +7315,27 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>239</v>
+      </c>
+      <c r="C240" t="n">
         <v>238</v>
-      </c>
-      <c r="C240" t="n">
-        <v>236</v>
       </c>
       <c r="D240" t="n">
         <v>239</v>
       </c>
       <c r="E240" t="n">
+        <v>238</v>
+      </c>
+      <c r="F240" t="n">
+        <v>761.828</v>
+      </c>
+      <c r="G240" t="n">
         <v>236</v>
       </c>
-      <c r="F240" t="n">
-        <v>5269.7737</v>
-      </c>
-      <c r="G240" t="n">
-        <v>236.0333333333333</v>
-      </c>
       <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6622,24 +7344,27 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C241" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D241" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E241" t="n">
         <v>236</v>
       </c>
       <c r="F241" t="n">
-        <v>3245.4792</v>
+        <v>5269.7737</v>
       </c>
       <c r="G241" t="n">
-        <v>236.0833333333333</v>
+        <v>236.0333333333333</v>
       </c>
       <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6648,24 +7373,27 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C242" t="n">
+        <v>237</v>
+      </c>
+      <c r="D242" t="n">
+        <v>237</v>
+      </c>
+      <c r="E242" t="n">
         <v>236</v>
       </c>
-      <c r="D242" t="n">
-        <v>236</v>
-      </c>
-      <c r="E242" t="n">
-        <v>234</v>
-      </c>
       <c r="F242" t="n">
-        <v>3973.633</v>
+        <v>3245.4792</v>
       </c>
       <c r="G242" t="n">
-        <v>236.1</v>
+        <v>236.0833333333333</v>
       </c>
       <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6674,24 +7402,27 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C243" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D243" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E243" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F243" t="n">
-        <v>49937.6179</v>
+        <v>3973.633</v>
       </c>
       <c r="G243" t="n">
-        <v>236.1166666666667</v>
+        <v>236.1</v>
       </c>
       <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6700,24 +7431,27 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C244" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D244" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E244" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F244" t="n">
-        <v>1739.4238</v>
+        <v>49937.6179</v>
       </c>
       <c r="G244" t="n">
-        <v>236.1</v>
+        <v>236.1166666666667</v>
       </c>
       <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,24 +7460,27 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C245" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D245" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E245" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F245" t="n">
-        <v>268.3642</v>
+        <v>1739.4238</v>
       </c>
       <c r="G245" t="n">
-        <v>236.0833333333333</v>
+        <v>236.1</v>
       </c>
       <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6752,24 +7489,27 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C246" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D246" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E246" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F246" t="n">
-        <v>6</v>
+        <v>268.3642</v>
       </c>
       <c r="G246" t="n">
-        <v>236.1333333333333</v>
+        <v>236.0833333333333</v>
       </c>
       <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6781,21 +7521,24 @@
         <v>233</v>
       </c>
       <c r="C247" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D247" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E247" t="n">
         <v>233</v>
       </c>
       <c r="F247" t="n">
-        <v>868.8008</v>
+        <v>6</v>
       </c>
       <c r="G247" t="n">
-        <v>236.1666666666667</v>
+        <v>236.1333333333333</v>
       </c>
       <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6804,7 +7547,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C248" t="n">
         <v>235</v>
@@ -6813,15 +7556,18 @@
         <v>235</v>
       </c>
       <c r="E248" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F248" t="n">
-        <v>1120.7202</v>
+        <v>868.8008</v>
       </c>
       <c r="G248" t="n">
-        <v>236.1833333333333</v>
+        <v>236.1666666666667</v>
       </c>
       <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6842,12 +7588,15 @@
         <v>235</v>
       </c>
       <c r="F249" t="n">
-        <v>1580.9374</v>
+        <v>1120.7202</v>
       </c>
       <c r="G249" t="n">
-        <v>236.2</v>
+        <v>236.1833333333333</v>
       </c>
       <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6868,532 +7617,15 @@
         <v>235</v>
       </c>
       <c r="F250" t="n">
-        <v>13694.4834</v>
+        <v>1580.9374</v>
       </c>
       <c r="G250" t="n">
-        <v>236.2333333333333</v>
+        <v>236.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
-        <v>249</v>
-      </c>
-      <c r="B251" t="n">
-        <v>235</v>
-      </c>
-      <c r="C251" t="n">
-        <v>236</v>
-      </c>
-      <c r="D251" t="n">
-        <v>236</v>
-      </c>
-      <c r="E251" t="n">
-        <v>235</v>
-      </c>
-      <c r="F251" t="n">
-        <v>83.85899999999999</v>
-      </c>
-      <c r="G251" t="n">
-        <v>236.3</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="B252" t="n">
-        <v>236</v>
-      </c>
-      <c r="C252" t="n">
-        <v>236</v>
-      </c>
-      <c r="D252" t="n">
-        <v>236</v>
-      </c>
-      <c r="E252" t="n">
-        <v>236</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1591.3674</v>
-      </c>
-      <c r="G252" t="n">
-        <v>236.3666666666667</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
-        <v>251</v>
-      </c>
-      <c r="B253" t="n">
-        <v>236</v>
-      </c>
-      <c r="C253" t="n">
-        <v>238</v>
-      </c>
-      <c r="D253" t="n">
-        <v>238</v>
-      </c>
-      <c r="E253" t="n">
-        <v>236</v>
-      </c>
-      <c r="F253" t="n">
-        <v>582.0349</v>
-      </c>
-      <c r="G253" t="n">
-        <v>236.4333333333333</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
-        <v>252</v>
-      </c>
-      <c r="B254" t="n">
-        <v>238</v>
-      </c>
-      <c r="C254" t="n">
-        <v>238</v>
-      </c>
-      <c r="D254" t="n">
-        <v>238</v>
-      </c>
-      <c r="E254" t="n">
-        <v>238</v>
-      </c>
-      <c r="F254" t="n">
-        <v>2.417</v>
-      </c>
-      <c r="G254" t="n">
-        <v>236.5</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
-        <v>253</v>
-      </c>
-      <c r="B255" t="n">
-        <v>236</v>
-      </c>
-      <c r="C255" t="n">
-        <v>237</v>
-      </c>
-      <c r="D255" t="n">
-        <v>237</v>
-      </c>
-      <c r="E255" t="n">
-        <v>236</v>
-      </c>
-      <c r="F255" t="n">
-        <v>868.8008</v>
-      </c>
-      <c r="G255" t="n">
-        <v>236.5666666666667</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>237</v>
-      </c>
-      <c r="C256" t="n">
-        <v>238</v>
-      </c>
-      <c r="D256" t="n">
-        <v>238</v>
-      </c>
-      <c r="E256" t="n">
-        <v>237</v>
-      </c>
-      <c r="F256" t="n">
-        <v>993.9218</v>
-      </c>
-      <c r="G256" t="n">
-        <v>236.65</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>238</v>
-      </c>
-      <c r="C257" t="n">
-        <v>238</v>
-      </c>
-      <c r="D257" t="n">
-        <v>238</v>
-      </c>
-      <c r="E257" t="n">
-        <v>238</v>
-      </c>
-      <c r="F257" t="n">
-        <v>5219.1418</v>
-      </c>
-      <c r="G257" t="n">
-        <v>236.7166666666667</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>236</v>
-      </c>
-      <c r="C258" t="n">
-        <v>238</v>
-      </c>
-      <c r="D258" t="n">
-        <v>238</v>
-      </c>
-      <c r="E258" t="n">
-        <v>236</v>
-      </c>
-      <c r="F258" t="n">
-        <v>11.3959</v>
-      </c>
-      <c r="G258" t="n">
-        <v>236.8833333333333</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>236</v>
-      </c>
-      <c r="C259" t="n">
-        <v>238</v>
-      </c>
-      <c r="D259" t="n">
-        <v>238</v>
-      </c>
-      <c r="E259" t="n">
-        <v>233</v>
-      </c>
-      <c r="F259" t="n">
-        <v>5449.8911</v>
-      </c>
-      <c r="G259" t="n">
-        <v>236.9666666666667</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>237</v>
-      </c>
-      <c r="C260" t="n">
-        <v>237</v>
-      </c>
-      <c r="D260" t="n">
-        <v>237</v>
-      </c>
-      <c r="E260" t="n">
-        <v>237</v>
-      </c>
-      <c r="F260" t="n">
-        <v>3</v>
-      </c>
-      <c r="G260" t="n">
-        <v>237.05</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>237</v>
-      </c>
-      <c r="C261" t="n">
-        <v>237</v>
-      </c>
-      <c r="D261" t="n">
-        <v>237</v>
-      </c>
-      <c r="E261" t="n">
-        <v>237</v>
-      </c>
-      <c r="F261" t="n">
-        <v>3</v>
-      </c>
-      <c r="G261" t="n">
-        <v>237.2</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>234</v>
-      </c>
-      <c r="C262" t="n">
-        <v>236</v>
-      </c>
-      <c r="D262" t="n">
-        <v>236</v>
-      </c>
-      <c r="E262" t="n">
-        <v>234</v>
-      </c>
-      <c r="F262" t="n">
-        <v>5909.9158</v>
-      </c>
-      <c r="G262" t="n">
-        <v>237.2666666666667</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>234</v>
-      </c>
-      <c r="C263" t="n">
-        <v>233</v>
-      </c>
-      <c r="D263" t="n">
-        <v>234</v>
-      </c>
-      <c r="E263" t="n">
-        <v>233</v>
-      </c>
-      <c r="F263" t="n">
-        <v>2624.4354</v>
-      </c>
-      <c r="G263" t="n">
-        <v>237.3166666666667</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>236</v>
-      </c>
-      <c r="C264" t="n">
-        <v>235</v>
-      </c>
-      <c r="D264" t="n">
-        <v>236</v>
-      </c>
-      <c r="E264" t="n">
-        <v>233</v>
-      </c>
-      <c r="F264" t="n">
-        <v>894.9316</v>
-      </c>
-      <c r="G264" t="n">
-        <v>237.4</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>235</v>
-      </c>
-      <c r="C265" t="n">
-        <v>235</v>
-      </c>
-      <c r="D265" t="n">
-        <v>235</v>
-      </c>
-      <c r="E265" t="n">
-        <v>235</v>
-      </c>
-      <c r="F265" t="n">
-        <v>28</v>
-      </c>
-      <c r="G265" t="n">
-        <v>237.4666666666667</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>233</v>
-      </c>
-      <c r="C266" t="n">
-        <v>233</v>
-      </c>
-      <c r="D266" t="n">
-        <v>233</v>
-      </c>
-      <c r="E266" t="n">
-        <v>233</v>
-      </c>
-      <c r="F266" t="n">
-        <v>2209.4102</v>
-      </c>
-      <c r="G266" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>233</v>
-      </c>
-      <c r="C267" t="n">
-        <v>234</v>
-      </c>
-      <c r="D267" t="n">
-        <v>234</v>
-      </c>
-      <c r="E267" t="n">
-        <v>233</v>
-      </c>
-      <c r="F267" t="n">
-        <v>6</v>
-      </c>
-      <c r="G267" t="n">
-        <v>237.55</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>234</v>
-      </c>
-      <c r="C268" t="n">
-        <v>234</v>
-      </c>
-      <c r="D268" t="n">
-        <v>234</v>
-      </c>
-      <c r="E268" t="n">
-        <v>234</v>
-      </c>
-      <c r="F268" t="n">
-        <v>980.4539</v>
-      </c>
-      <c r="G268" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>232</v>
-      </c>
-      <c r="C269" t="n">
-        <v>234</v>
-      </c>
-      <c r="D269" t="n">
-        <v>234</v>
-      </c>
-      <c r="E269" t="n">
-        <v>232</v>
-      </c>
-      <c r="F269" t="n">
-        <v>258.2533</v>
-      </c>
-      <c r="G269" t="n">
-        <v>237.6166666666667</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>235</v>
-      </c>
-      <c r="C270" t="n">
-        <v>233</v>
-      </c>
-      <c r="D270" t="n">
-        <v>235</v>
-      </c>
-      <c r="E270" t="n">
-        <v>232</v>
-      </c>
-      <c r="F270" t="n">
-        <v>363.5605</v>
-      </c>
-      <c r="G270" t="n">
-        <v>237.6</v>
-      </c>
-      <c r="H270" t="n">
+      <c r="I250" t="n">
         <v>0</v>
       </c>
     </row>
